--- a/jpcore-r4/feature/swg3-coverageindentifier被保険者キー作成/StructureDefinition-jp-coverage-insuredpersonsubnumber.xlsx
+++ b/jpcore-r4/feature/swg3-coverageindentifier被保険者キー作成/StructureDefinition-jp-coverage-insuredpersonsubnumber.xlsx
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Coverage</t>
+    <t>element:Coverage.identifier</t>
   </si>
   <si>
     <t>Path</t>
